--- a/data/trans_orig/P16A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1661,7 +1661,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2768,7 +2768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3875,7 +3875,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>41069</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28747</v>
+        <v>28781</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55117</v>
+        <v>55324</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0398066997521738</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02786293277316705</v>
+        <v>0.0278962546209451</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05342204463494703</v>
+        <v>0.05362307949370903</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>126</v>
@@ -765,19 +765,19 @@
         <v>129597</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>108977</v>
+        <v>109608</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>152738</v>
+        <v>151703</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09854460089422309</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08286486201792598</v>
+        <v>0.08334499382958047</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1161407470076325</v>
+        <v>0.1153535883111391</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>167</v>
@@ -786,19 +786,19 @@
         <v>170667</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>147193</v>
+        <v>147288</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>195921</v>
+        <v>196048</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07272206884910049</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0627196296978072</v>
+        <v>0.06276023918472906</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0834831372119222</v>
+        <v>0.0835369823566038</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>990654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>976606</v>
+        <v>976399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1002976</v>
+        <v>1002942</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9601933002478262</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9465779553650531</v>
+        <v>0.9463769205062913</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.972137067226833</v>
+        <v>0.972103745379055</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1165</v>
@@ -836,19 +836,19 @@
         <v>1185516</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1162375</v>
+        <v>1163410</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1206136</v>
+        <v>1205505</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9014553991057769</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8838592529923673</v>
+        <v>0.8846464116888608</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9171351379820739</v>
+        <v>0.9166550061704195</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2162</v>
@@ -857,19 +857,19 @@
         <v>2176168</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2150914</v>
+        <v>2150787</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2199642</v>
+        <v>2199547</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9272779311508995</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9165168627880779</v>
+        <v>0.9164630176433962</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9372803703021928</v>
+        <v>0.9372397608152711</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>17714</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10599</v>
+        <v>10907</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27540</v>
+        <v>27970</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0104667242342436</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006262944690410948</v>
+        <v>0.006444562428529233</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01627296395740841</v>
+        <v>0.01652696775541184</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -982,19 +982,19 @@
         <v>71504</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57365</v>
+        <v>56023</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91388</v>
+        <v>90679</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04503681601098469</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03613179492516347</v>
+        <v>0.03528597271729039</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.057560941985044</v>
+        <v>0.0571145173797782</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -1003,19 +1003,19 @@
         <v>89218</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71704</v>
+        <v>70300</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110276</v>
+        <v>109623</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02719991772332021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02186054835139372</v>
+        <v>0.02143261542863357</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03362003055306954</v>
+        <v>0.03342109383648006</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1674680</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1664854</v>
+        <v>1664424</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1681795</v>
+        <v>1681487</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9895332757657564</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9837270360425916</v>
+        <v>0.983473032244588</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9937370553095891</v>
+        <v>0.9935554375714707</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1485</v>
@@ -1053,19 +1053,19 @@
         <v>1516169</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1496285</v>
+        <v>1496994</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1530308</v>
+        <v>1531650</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9549631839890153</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.942439058014956</v>
+        <v>0.9428854826202215</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9638682050748368</v>
+        <v>0.9647140272827094</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3115</v>
@@ -1074,19 +1074,19 @@
         <v>3190849</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3169791</v>
+        <v>3170444</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3208363</v>
+        <v>3209767</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9728000822766798</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9663799694469303</v>
+        <v>0.9665789061635199</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9781394516486063</v>
+        <v>0.9785673845713664</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11317</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5813</v>
+        <v>6187</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18891</v>
+        <v>19119</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02052297261279451</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01054161273571743</v>
+        <v>0.01121987687583199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03425945996305326</v>
+        <v>0.03467375295479917</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1199,19 +1199,19 @@
         <v>17080</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10175</v>
+        <v>10400</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27134</v>
+        <v>27399</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03585092222227982</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02135760150271373</v>
+        <v>0.02182976051227485</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05695569832437149</v>
+        <v>0.05751018692503029</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1220,19 +1220,19 @@
         <v>28396</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19428</v>
+        <v>19167</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41680</v>
+        <v>40450</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0276277347293528</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01890237867930815</v>
+        <v>0.01864823344318424</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04055144420741529</v>
+        <v>0.03935507565336692</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>540091</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>532517</v>
+        <v>532289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545595</v>
+        <v>545221</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9794770273872054</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9657405400369468</v>
+        <v>0.9653262470452009</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9894583872642826</v>
+        <v>0.9887801231241683</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>436</v>
@@ -1270,19 +1270,19 @@
         <v>459332</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>449278</v>
+        <v>449013</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>466237</v>
+        <v>466012</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9641490777777202</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9430443016756286</v>
+        <v>0.9424898130749695</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9786423984972864</v>
+        <v>0.9781702394877251</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>951</v>
@@ -1291,19 +1291,19 @@
         <v>999424</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>986140</v>
+        <v>987370</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1008392</v>
+        <v>1008653</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9723722652706472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9594485557925847</v>
+        <v>0.9606449243466332</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.981097621320692</v>
+        <v>0.9813517665568158</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>70100</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55517</v>
+        <v>54636</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87702</v>
+        <v>87671</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02140109842982431</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01694897188657182</v>
+        <v>0.01668021194223581</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02677481713909925</v>
+        <v>0.02676556389797543</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>211</v>
@@ -1416,19 +1416,19 @@
         <v>218181</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>191588</v>
+        <v>191645</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>247905</v>
+        <v>251510</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06456586112839455</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05669620558517999</v>
+        <v>0.0567132671622901</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07336208737893515</v>
+        <v>0.07442887647006782</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>282</v>
@@ -1437,19 +1437,19 @@
         <v>288281</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>257349</v>
+        <v>253295</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>321761</v>
+        <v>321010</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04331970597573254</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03867166299025256</v>
+        <v>0.03806250496946381</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0483507486051948</v>
+        <v>0.04823790714918692</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3205425</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3187823</v>
+        <v>3187854</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3220008</v>
+        <v>3220889</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9785989015701757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9732251828609008</v>
+        <v>0.9732344361020245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9830510281134283</v>
+        <v>0.9833197880577643</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3086</v>
@@ -1487,19 +1487,19 @@
         <v>3161016</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3131292</v>
+        <v>3127687</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3187609</v>
+        <v>3187552</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9354341388716054</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9266379126210648</v>
+        <v>0.9255711235299322</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9433037944148199</v>
+        <v>0.9432867328377098</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6228</v>
@@ -1508,19 +1508,19 @@
         <v>6366441</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6332961</v>
+        <v>6333712</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6397373</v>
+        <v>6401427</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9566802940242675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9516492513948053</v>
+        <v>0.9517620928508129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9613283370097477</v>
+        <v>0.961937495030536</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>49847</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35706</v>
+        <v>38021</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65243</v>
+        <v>67082</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05129199072008899</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03674087613548035</v>
+        <v>0.03912307388557444</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0671340010118178</v>
+        <v>0.06902644994825065</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>180</v>
@@ -1872,19 +1872,19 @@
         <v>190466</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>165150</v>
+        <v>165074</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>217844</v>
+        <v>218907</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1429446481009046</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1239445960145594</v>
+        <v>0.1238877168445693</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1634916319627434</v>
+        <v>0.1642896867015453</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>225</v>
@@ -1893,19 +1893,19 @@
         <v>240314</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>211038</v>
+        <v>210875</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>272427</v>
+        <v>271320</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1042899344167949</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09158499249116002</v>
+        <v>0.0915144627272929</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1182262857573787</v>
+        <v>0.1177460809295744</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>921990</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>906594</v>
+        <v>904755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>936131</v>
+        <v>933816</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9487080092799111</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9328659989881822</v>
+        <v>0.9309735500517494</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9632591238645196</v>
+        <v>0.9608769261144255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1062</v>
@@ -1943,19 +1943,19 @@
         <v>1141981</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1114603</v>
+        <v>1113540</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1167297</v>
+        <v>1167373</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8570553518990954</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8365083680372568</v>
+        <v>0.8357103132984548</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8760554039854407</v>
+        <v>0.8761122831554307</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1923</v>
@@ -1964,19 +1964,19 @@
         <v>2063970</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2031857</v>
+        <v>2032964</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2093246</v>
+        <v>2093409</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8957100655832051</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8817737142426213</v>
+        <v>0.8822539190704256</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.90841500750884</v>
+        <v>0.9084855372727071</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>47904</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34909</v>
+        <v>33646</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63519</v>
+        <v>63680</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02445370306575094</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01782013615118765</v>
+        <v>0.01717534670650953</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03242425746154635</v>
+        <v>0.03250647376760257</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -2089,19 +2089,19 @@
         <v>96450</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78622</v>
+        <v>77973</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119489</v>
+        <v>116047</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05503170692221935</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04485956631473202</v>
+        <v>0.04448877644585006</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06817680972320721</v>
+        <v>0.06621290956632261</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>135</v>
@@ -2110,19 +2110,19 @@
         <v>144355</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>121579</v>
+        <v>122775</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>168697</v>
+        <v>170655</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0388927172004486</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03275627315093139</v>
+        <v>0.03307851631530382</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04545110851998439</v>
+        <v>0.04597851406212983</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1911077</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1895462</v>
+        <v>1895301</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1924072</v>
+        <v>1925335</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9755462969342491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9675757425384536</v>
+        <v>0.9674935262323973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9821798638488123</v>
+        <v>0.9828246532934904</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1538</v>
@@ -2160,19 +2160,19 @@
         <v>1656185</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1633146</v>
+        <v>1636588</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1674013</v>
+        <v>1674662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9449682930777806</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9318231902767927</v>
+        <v>0.9337870904336775</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.955140433685268</v>
+        <v>0.95551122355415</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3346</v>
@@ -2181,19 +2181,19 @@
         <v>3567260</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3542918</v>
+        <v>3540960</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3590036</v>
+        <v>3588840</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9611072827995514</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9545488914800156</v>
+        <v>0.9540214859378702</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9672437268490687</v>
+        <v>0.9669214836846961</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>9050</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3804</v>
+        <v>3459</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20392</v>
+        <v>20368</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01884136116891133</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007919109315215616</v>
+        <v>0.007201391935963035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04245375748069226</v>
+        <v>0.04240359795389149</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -2306,19 +2306,19 @@
         <v>9689</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4776</v>
+        <v>4523</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18400</v>
+        <v>18563</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02117007346994068</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01043549361837246</v>
+        <v>0.009882888485924776</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04020571740733142</v>
+        <v>0.04056187841225334</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -2327,19 +2327,19 @@
         <v>18739</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10687</v>
+        <v>10235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32087</v>
+        <v>32685</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01997756680108737</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01139338034650957</v>
+        <v>0.01091119918208717</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03420809178292004</v>
+        <v>0.03484617054379144</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>471282</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>459940</v>
+        <v>459964</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>476528</v>
+        <v>476873</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9811586388310887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9575462425193079</v>
+        <v>0.9575964020461094</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9920808906847843</v>
+        <v>0.9927986080640376</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>402</v>
@@ -2377,19 +2377,19 @@
         <v>447965</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>439254</v>
+        <v>439091</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>452878</v>
+        <v>453131</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9788299265300593</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9597942825926675</v>
+        <v>0.9594381215877464</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9895645063816273</v>
+        <v>0.9901171115140752</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>833</v>
@@ -2398,19 +2398,19 @@
         <v>919247</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>905899</v>
+        <v>905301</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>927299</v>
+        <v>927751</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9800224331989126</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9657919082170799</v>
+        <v>0.9651538294562085</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9886066196534905</v>
+        <v>0.9890888008179128</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>106802</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86445</v>
+        <v>86655</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129421</v>
+        <v>130719</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03130964751869923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02534181037940297</v>
+        <v>0.02540346839829905</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03794051504626906</v>
+        <v>0.03832106760586216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>281</v>
@@ -2523,19 +2523,19 @@
         <v>296605</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>262093</v>
+        <v>264562</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>330815</v>
+        <v>332431</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08372208035452698</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07398025681543115</v>
+        <v>0.07467728820707172</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09337840326554782</v>
+        <v>0.09383441537863914</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>375</v>
@@ -2544,19 +2544,19 @@
         <v>403407</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>364459</v>
+        <v>364874</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>446110</v>
+        <v>447097</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05801175633905323</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05241082495813457</v>
+        <v>0.05247052718590074</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06415257284561966</v>
+        <v>0.06429457801489365</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3304348</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3281729</v>
+        <v>3280431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3324705</v>
+        <v>3324495</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9686903524813008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9620594849537308</v>
+        <v>0.9616789323941384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9746581896205969</v>
+        <v>0.974596531601701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3002</v>
@@ -2594,19 +2594,19 @@
         <v>3246131</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3211921</v>
+        <v>3210305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3280643</v>
+        <v>3278174</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.916277919645473</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9066215967344522</v>
+        <v>0.9061655846213608</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9260197431845689</v>
+        <v>0.9253227117929282</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6102</v>
@@ -2615,19 +2615,19 @@
         <v>6550479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6507776</v>
+        <v>6506789</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6589427</v>
+        <v>6589012</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9419882436609468</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9358474271543804</v>
+        <v>0.9357054219851063</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9475891750418658</v>
+        <v>0.9475294728140992</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>31843</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22322</v>
+        <v>21957</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44056</v>
+        <v>44572</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04221207513190366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02959095111067003</v>
+        <v>0.02910781899830054</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05840287904458302</v>
+        <v>0.05908736421728081</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -2979,19 +2979,19 @@
         <v>112358</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93446</v>
+        <v>93345</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>134522</v>
+        <v>133836</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1129612143332724</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09394738335726917</v>
+        <v>0.09384604728393235</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1352440093688204</v>
+        <v>0.1345543760433383</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -3000,19 +3000,19 @@
         <v>144201</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>122714</v>
+        <v>123263</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>169817</v>
+        <v>170292</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08244710735866503</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07016185539471873</v>
+        <v>0.07047615327992048</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09709355312082717</v>
+        <v>0.09736488050310929</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>722504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>710291</v>
+        <v>709775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>732025</v>
+        <v>732390</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9577879248680964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9415971209554173</v>
+        <v>0.9409126357827197</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9704090488893301</v>
+        <v>0.9708921810016996</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>791</v>
@@ -3050,19 +3050,19 @@
         <v>882302</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>860138</v>
+        <v>860824</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>901214</v>
+        <v>901315</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8870387856667277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8647559906311796</v>
+        <v>0.8654456239566618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9060526166427308</v>
+        <v>0.9061539527160677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1521</v>
@@ -3071,19 +3071,19 @@
         <v>1604806</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1579190</v>
+        <v>1578715</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1626293</v>
+        <v>1625744</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.917552892641335</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9029064468791728</v>
+        <v>0.9026351194968907</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9298381446052811</v>
+        <v>0.9295238467200797</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>39381</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28619</v>
+        <v>27187</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54125</v>
+        <v>52142</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01896634213101916</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01378318017362226</v>
+        <v>0.01309344503161026</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02606689253003117</v>
+        <v>0.02511181219636124</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -3196,19 +3196,19 @@
         <v>122387</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100660</v>
+        <v>102401</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145567</v>
+        <v>146300</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06155383320851956</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05062627152236584</v>
+        <v>0.0515015714287283</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07321160868995753</v>
+        <v>0.07358055052616021</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -3217,19 +3217,19 @@
         <v>161769</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>136027</v>
+        <v>137164</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>188982</v>
+        <v>188039</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03979863556533662</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03346550042204856</v>
+        <v>0.03374535851557083</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04649369709998352</v>
+        <v>0.04626153379780145</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2037004</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2022260</v>
+        <v>2024243</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2047766</v>
+        <v>2049198</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9810336578689809</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9739331074699688</v>
+        <v>0.9748881878036387</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9862168198263778</v>
+        <v>0.9869065549683897</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1797</v>
@@ -3267,19 +3267,19 @@
         <v>1865913</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1842733</v>
+        <v>1842000</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1887640</v>
+        <v>1885899</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9384461667914804</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9267883913100421</v>
+        <v>0.9264194494738397</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9493737284776339</v>
+        <v>0.9484984285712716</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3711</v>
@@ -3288,19 +3288,19 @@
         <v>3902916</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3875703</v>
+        <v>3876646</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3928658</v>
+        <v>3927521</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9602013644346634</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9535063029000165</v>
+        <v>0.9537384662021987</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9665344995779515</v>
+        <v>0.9662546414844292</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>2983</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7838</v>
+        <v>8495</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005454347770290838</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001623222214381779</v>
+        <v>0.001643681978228594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01433138454196932</v>
+        <v>0.01553404529959853</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3413,19 +3413,19 @@
         <v>14541</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8159</v>
+        <v>8321</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24194</v>
+        <v>26489</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02647945843054095</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01485841872379898</v>
+        <v>0.0151527509945526</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04405729720124339</v>
+        <v>0.04823688824760389</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -3434,19 +3434,19 @@
         <v>17524</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10411</v>
+        <v>10496</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28920</v>
+        <v>28524</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01598852374889547</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009498960303680483</v>
+        <v>0.009576761879004891</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02638643224858048</v>
+        <v>0.02602447546624671</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>543903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>539048</v>
+        <v>538391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545998</v>
+        <v>545987</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9945456522297091</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9856686154580306</v>
+        <v>0.9844659547004015</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9983767777856182</v>
+        <v>0.9983563180217714</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>513</v>
@@ -3484,19 +3484,19 @@
         <v>534599</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>524946</v>
+        <v>522651</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>540981</v>
+        <v>540819</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.973520541569459</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9559427027987567</v>
+        <v>0.9517631117523963</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.985141581276201</v>
+        <v>0.9848472490054474</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1011</v>
@@ -3505,19 +3505,19 @@
         <v>1078503</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1067107</v>
+        <v>1067503</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1085616</v>
+        <v>1085531</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9840114762511045</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9736135677514195</v>
+        <v>0.9739755245337534</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9905010396963195</v>
+        <v>0.9904232381209951</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>74207</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58106</v>
+        <v>60127</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91105</v>
+        <v>93814</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02197018107907677</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01720310134748663</v>
+        <v>0.017801585908237</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02697311186382763</v>
+        <v>0.02777507589332096</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>225</v>
@@ -3630,19 +3630,19 @@
         <v>249286</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>220416</v>
+        <v>217887</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>283033</v>
+        <v>280510</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07057739274950862</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06240355780711507</v>
+        <v>0.06168757356243588</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08013159127429784</v>
+        <v>0.07941724597150225</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>298</v>
@@ -3651,19 +3651,19 @@
         <v>323493</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>288487</v>
+        <v>285652</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>360326</v>
+        <v>360178</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0468171499034314</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04175086885107677</v>
+        <v>0.04134060143525923</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05214772643193055</v>
+        <v>0.05212633639118402</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3303411</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3286513</v>
+        <v>3283804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3319512</v>
+        <v>3317491</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9780298189209232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9730268881361723</v>
+        <v>0.9722249241066793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9827968986525133</v>
+        <v>0.9821984140917631</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3101</v>
@@ -3701,19 +3701,19 @@
         <v>3282814</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3249067</v>
+        <v>3251590</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3311684</v>
+        <v>3314213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9294226072504914</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9198684087257022</v>
+        <v>0.9205827540284977</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9375964421928848</v>
+        <v>0.938312426437564</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6243</v>
@@ -3722,19 +3722,19 @@
         <v>6586225</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6549392</v>
+        <v>6549540</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6621231</v>
+        <v>6624066</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9531828500965686</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9478522735680693</v>
+        <v>0.947873663608816</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9582491311489232</v>
+        <v>0.9586593985647408</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>36065</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26599</v>
+        <v>25610</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48560</v>
+        <v>49121</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06249995141084064</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04609504270642496</v>
+        <v>0.04438120380857942</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08415310277663089</v>
+        <v>0.08512396589790575</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>186</v>
@@ -4086,19 +4086,19 @@
         <v>108325</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94570</v>
+        <v>93507</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123970</v>
+        <v>123351</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.132138770353661</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.11535926298549</v>
+        <v>0.1140624855991872</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1512227218312248</v>
+        <v>0.1504669249551538</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>229</v>
@@ -4107,19 +4107,19 @@
         <v>144391</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>126881</v>
+        <v>126541</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>165474</v>
+        <v>165526</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1033701873426847</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09083477864436976</v>
+        <v>0.09059153649759773</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1184638192984857</v>
+        <v>0.118501330000188</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>540982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>528487</v>
+        <v>527926</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>550448</v>
+        <v>551437</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9375000485891596</v>
+        <v>0.9375000485891594</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9158468972233689</v>
+        <v>0.9148760341020945</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9539049572935753</v>
+        <v>0.9556187961914205</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1237</v>
@@ -4157,19 +4157,19 @@
         <v>711460</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>695815</v>
+        <v>696434</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>725215</v>
+        <v>726278</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.867861229646339</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8487772781687752</v>
+        <v>0.8495330750448465</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8846407370145102</v>
+        <v>0.8859375144008133</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1883</v>
@@ -4178,19 +4178,19 @@
         <v>1252441</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1231358</v>
+        <v>1231306</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1269951</v>
+        <v>1270291</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8966298126573153</v>
+        <v>0.8966298126573151</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8815361807015142</v>
+        <v>0.8814986699998119</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9091652213556303</v>
+        <v>0.9094084635024023</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>71085</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55654</v>
+        <v>55257</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91114</v>
+        <v>90676</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03186862704647223</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02495083609104233</v>
+        <v>0.02477259086886608</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04084784013872394</v>
+        <v>0.04065149821500299</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -4303,19 +4303,19 @@
         <v>149330</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>129922</v>
+        <v>128571</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170023</v>
+        <v>170009</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06879304640905769</v>
+        <v>0.06879304640905767</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05985256474549397</v>
+        <v>0.05922983269205889</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07832610059120533</v>
+        <v>0.0783195202788589</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>296</v>
@@ -4324,19 +4324,19 @@
         <v>220415</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196226</v>
+        <v>194628</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>248742</v>
+        <v>248307</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05007974322029293</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04458390177628182</v>
+        <v>0.04422078844773181</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05651590669573098</v>
+        <v>0.05641696333459843</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2159481</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2139452</v>
+        <v>2139890</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2174912</v>
+        <v>2175309</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9681313729535277</v>
+        <v>0.9681313729535279</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.959152159861276</v>
+        <v>0.9593485017849966</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9750491639089577</v>
+        <v>0.9752274091311339</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2695</v>
@@ -4374,19 +4374,19 @@
         <v>2021377</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2000684</v>
+        <v>2000698</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2040785</v>
+        <v>2042136</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9312069535909423</v>
+        <v>0.9312069535909424</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9216738994087948</v>
+        <v>0.9216804797211411</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9401474352545062</v>
+        <v>0.9407701673079411</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4616</v>
@@ -4395,19 +4395,19 @@
         <v>4180859</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4152532</v>
+        <v>4152967</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4205048</v>
+        <v>4206646</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.949920256779707</v>
+        <v>0.9499202567797072</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9434840933042693</v>
+        <v>0.9435830366654016</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9554160982237183</v>
+        <v>0.9557792115522682</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>14604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8180</v>
+        <v>7874</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23710</v>
+        <v>23951</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02052271648507575</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01149518260167488</v>
+        <v>0.01106561214174034</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03332010553710652</v>
+        <v>0.0336585087080781</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -4520,19 +4520,19 @@
         <v>27933</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20072</v>
+        <v>19556</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37831</v>
+        <v>37467</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03801100966578315</v>
+        <v>0.03801100966578316</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02731312050949574</v>
+        <v>0.02661104306622016</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05147958231070185</v>
+        <v>0.05098353328108551</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -4541,19 +4541,19 @@
         <v>42537</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30446</v>
+        <v>31565</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55757</v>
+        <v>55904</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02940765698005659</v>
+        <v>0.02940765698005658</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02104849576050467</v>
+        <v>0.02182250651025922</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03854724524937152</v>
+        <v>0.03864884752359388</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>696983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>687877</v>
+        <v>687636</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>703407</v>
+        <v>703713</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9794772835149242</v>
+        <v>0.9794772835149241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9666798944628935</v>
+        <v>0.9663414912919219</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9885048173983252</v>
+        <v>0.9889343878582596</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>965</v>
@@ -4591,19 +4591,19 @@
         <v>706944</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>697046</v>
+        <v>697410</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>714805</v>
+        <v>715321</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9619889903342167</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.948520417689298</v>
+        <v>0.9490164667189144</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.972686879490504</v>
+        <v>0.9733889569337798</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1631</v>
@@ -4612,19 +4612,19 @@
         <v>1403927</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1390707</v>
+        <v>1390560</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1416018</v>
+        <v>1414899</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9705923430199435</v>
+        <v>0.9705923430199432</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.961452754750629</v>
+        <v>0.9613511524764061</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9789515042394954</v>
+        <v>0.9781774934897408</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>121754</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>101690</v>
+        <v>100880</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144184</v>
+        <v>144653</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03459711880505394</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02889568328233018</v>
+        <v>0.0286657191911671</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04097061728553751</v>
+        <v>0.04110402188927343</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>450</v>
@@ -4737,19 +4737,19 @@
         <v>285588</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>260612</v>
+        <v>258637</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>313882</v>
+        <v>313373</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07666041054124677</v>
+        <v>0.07666041054124678</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06995602519147527</v>
+        <v>0.06942589916210477</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08425518369024361</v>
+        <v>0.08411852093177115</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>579</v>
@@ -4758,19 +4758,19 @@
         <v>407343</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>375705</v>
+        <v>371313</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>444880</v>
+        <v>441029</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05622729185901244</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05186018168539662</v>
+        <v>0.0512539476331372</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06140870919039824</v>
+        <v>0.06087721478237169</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3397446</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3375016</v>
+        <v>3374547</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3417510</v>
+        <v>3418320</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9654028811949459</v>
+        <v>0.965402881194946</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9590293827144625</v>
+        <v>0.9588959781107265</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9711043167176697</v>
+        <v>0.9713342808088328</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4897</v>
@@ -4808,19 +4808,19 @@
         <v>3439781</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3411487</v>
+        <v>3411996</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3464757</v>
+        <v>3466732</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9233395894587533</v>
+        <v>0.9233395894587531</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9157448163097565</v>
+        <v>0.9158814790682269</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9300439748085247</v>
+        <v>0.930574100837895</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8130</v>
@@ -4829,19 +4829,19 @@
         <v>6837227</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6799690</v>
+        <v>6803541</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6868865</v>
+        <v>6873257</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9437727081409875</v>
+        <v>0.9437727081409876</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9385912908096019</v>
+        <v>0.9391227852176279</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9481398183146039</v>
+        <v>0.9487460523668624</v>
       </c>
     </row>
     <row r="15">
